--- a/Nevasa/InformeCompleto/20250311/20250311_informe_completo_results.xlsx
+++ b/Nevasa/InformeCompleto/20250311/20250311_informe_completo_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,30 +542,30 @@
         <v>45727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4005</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>900000000</v>
+        <v>11716445.7</v>
       </c>
       <c r="F3" t="n">
-        <v>899879940</v>
+        <v>11699211</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>BNPDBC120325</t>
+          <t>LTM</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>COMPRA</t>
+          <t>VENTA</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>RENTA VARIABLE</t>
+          <t>SIMULTANEA</t>
         </is>
       </c>
     </row>
@@ -582,20 +582,20 @@
         <v>45727</v>
       </c>
       <c r="D4" t="n">
-        <v>16962.68</v>
+        <v>0.4005</v>
       </c>
       <c r="E4" t="n">
-        <v>4669</v>
+        <v>900000000</v>
       </c>
       <c r="F4" t="n">
-        <v>79198752</v>
+        <v>899879940</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CFINHRFLA</t>
+          <t>BNPDBC120325</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -625,10 +625,10 @@
         <v>16962.68</v>
       </c>
       <c r="E5" t="n">
-        <v>8841</v>
+        <v>4669</v>
       </c>
       <c r="F5" t="n">
-        <v>149967054</v>
+        <v>79198752</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -640,7 +640,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>VENTA</t>
+          <t>COMPRA</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -662,28 +662,68 @@
         <v>45727</v>
       </c>
       <c r="D6" t="n">
-        <v>16411.78</v>
+        <v>16962.68</v>
       </c>
       <c r="E6" t="n">
-        <v>1066</v>
+        <v>8841</v>
       </c>
       <c r="F6" t="n">
-        <v>17494958</v>
+        <v>149967054</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>CFINHRFLA</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16411.78</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17494958</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>CFINHRFLB</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>COMPRA</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>RENTA VARIABLE</t>
         </is>
